--- a/Texte/Vergleich internationale vs dwd.xlsx
+++ b/Texte/Vergleich internationale vs dwd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Documents/GitHub/Maturaarbeit/Texte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BDECD30-18E5-9943-B36F-817F95DE8675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB0148C-A702-804C-B572-0DA9F457613A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16280" xr2:uid="{C51E4B20-3C85-0049-AEA4-7D91301DF034}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C51E4B20-3C85-0049-AEA4-7D91301DF034}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>gps</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>international</t>
+  </si>
+  <si>
+    <t>true values</t>
+  </si>
+  <si>
+    <t>error dwd</t>
+  </si>
+  <si>
+    <t>error international</t>
+  </si>
+  <si>
+    <t>Error Durchschnitt</t>
   </si>
 </sst>
 </file>
@@ -105,6 +117,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00C300"/>
+      <color rgb="FF00E100"/>
+      <color rgb="FF00B300"/>
+      <color rgb="FF0432FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -214,15 +234,13 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -425,15 +443,13 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -610,6 +626,215 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A4A-6548-A6A4-ACBF4D2BAE2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>true values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00C300"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>585.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>586.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>591.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>586.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>590.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>635.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>640.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>640.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>650.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>665.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>665.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>663.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>666.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>666.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>663.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>665.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>660.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>659.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>650.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>644.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>643.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>621.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>592.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>587.70000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8A4A-6548-A6A4-ACBF4D2BAE2D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -646,6 +871,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Messungen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -692,8 +972,8 @@
         <c:axId val="825329920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="700"/>
-          <c:min val="500"/>
+          <c:max val="680"/>
+          <c:min val="580"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -711,6 +991,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Höhe</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> in Meter über Meer</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -751,6 +1096,8 @@
         <c:crossAx val="791397488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -766,7 +1113,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:srgbClr val="00C300"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1395,16 +1744,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>694845</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>26170</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>167794</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1733,20 +2082,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9228E6BA-796E-0E47-95E6-4D046EC79B0C}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -1754,13 +2104,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>A1+1</f>
         <v>1</v>
@@ -1772,13 +2134,32 @@
         <v>585.63</v>
       </c>
       <c r="D2">
+        <v>585.5</v>
+      </c>
+      <c r="E2">
         <v>588.29999999999995</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>593</v>
       </c>
+      <c r="G2">
+        <f>C2-D2</f>
+        <v>0.12999999999999545</v>
+      </c>
+      <c r="H2">
+        <f>B2-D2</f>
+        <v>-0.40999999999996817</v>
+      </c>
+      <c r="I2">
+        <f>SUM(G2:G26)/25</f>
+        <v>1.7439999999999918</v>
+      </c>
+      <c r="J2">
+        <f>SUM(H2:H26)/25</f>
+        <v>-0.12440000000000964</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A26" si="0">A2+1</f>
         <v>2</v>
@@ -1790,13 +2171,24 @@
         <v>586.59</v>
       </c>
       <c r="D3">
+        <v>586.6</v>
+      </c>
+      <c r="E3">
         <v>587</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>592</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:H26" si="1">C3-D3</f>
+        <v>-9.9999999999909051E-3</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H26" si="2">B3-D3</f>
+        <v>-0.75999999999999091</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1808,13 +2200,24 @@
         <v>592.35</v>
       </c>
       <c r="D4">
+        <v>591.5</v>
+      </c>
+      <c r="E4">
         <v>594.70000000000005</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5586</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.85000000000002274</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>-0.63999999999998636</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1826,13 +2229,24 @@
         <v>587.73</v>
       </c>
       <c r="D5">
+        <v>586.70000000000005</v>
+      </c>
+      <c r="E5">
         <v>589.6</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>588</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.0299999999999727</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>-0.21000000000003638</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1844,13 +2258,24 @@
         <v>591.67999999999995</v>
       </c>
       <c r="D6">
+        <v>590.70000000000005</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>595</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.9799999999999045</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>-0.33000000000004093</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1862,13 +2287,24 @@
         <v>636.79</v>
       </c>
       <c r="D7">
+        <v>635.20000000000005</v>
+      </c>
+      <c r="E7">
         <v>634</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>638</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.5899999999999181</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>-1.7599999999999909</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1880,13 +2316,24 @@
         <v>641.11</v>
       </c>
       <c r="D8">
+        <v>640.1</v>
+      </c>
+      <c r="E8">
         <v>633.79999999999995</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>632</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1.0099999999999909</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>-1.7300000000000182</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1898,13 +2345,24 @@
         <v>641.24</v>
       </c>
       <c r="D9">
+        <v>640.1</v>
+      </c>
+      <c r="E9">
         <v>633.79999999999995</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>632</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1.1399999999999864</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>-1.8300000000000409</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1916,13 +2374,24 @@
         <v>653.71</v>
       </c>
       <c r="D10">
+        <v>650.29999999999995</v>
+      </c>
+      <c r="E10">
         <v>654.29999999999995</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>636</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>3.4100000000000819</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>-0.55999999999994543</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1934,13 +2403,24 @@
         <v>667.9</v>
       </c>
       <c r="D11">
+        <v>665.1</v>
+      </c>
+      <c r="E11">
         <v>669</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>661</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>2.7999999999999545</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>-2.0900000000000318</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1952,13 +2432,24 @@
         <v>668.35</v>
       </c>
       <c r="D12">
+        <v>665.4</v>
+      </c>
+      <c r="E12">
         <v>666.9</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>662</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>2.9500000000000455</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>-1.3999999999999773</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1970,13 +2461,24 @@
         <v>665.87</v>
       </c>
       <c r="D13">
+        <v>663.6</v>
+      </c>
+      <c r="E13">
         <v>664.4</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>660</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>2.2699999999999818</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>-1.6499999999999773</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1988,13 +2490,24 @@
         <v>668.7</v>
       </c>
       <c r="D14">
+        <v>666.7</v>
+      </c>
+      <c r="E14">
         <v>672.1</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>664</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>-1.82000000000005</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2006,13 +2519,24 @@
         <v>668.94</v>
       </c>
       <c r="D15">
+        <v>666.7</v>
+      </c>
+      <c r="E15">
         <v>673.1</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>664</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>2.2400000000000091</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>-1.0800000000000409</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2024,13 +2548,24 @@
         <v>665.72</v>
       </c>
       <c r="D16">
+        <v>663.6</v>
+      </c>
+      <c r="E16">
         <v>671.8</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>660</v>
       </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>2.1200000000000045</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>-0.57000000000005002</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2042,13 +2577,24 @@
         <v>667.9</v>
       </c>
       <c r="D17">
+        <v>665.4</v>
+      </c>
+      <c r="E17">
         <v>668.7</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>662</v>
       </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>-0.18999999999994088</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2060,13 +2606,24 @@
         <v>663.58</v>
       </c>
       <c r="D18">
+        <v>660.9</v>
+      </c>
+      <c r="E18">
         <v>664.5</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>656</v>
       </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>2.6800000000000637</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.37999999999999545</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2078,13 +2635,24 @@
         <v>661.31</v>
       </c>
       <c r="D19">
+        <v>659.4</v>
+      </c>
+      <c r="E19">
         <v>663.7</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>652</v>
       </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1.9099999999999682</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>-0.11000000000001364</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2096,13 +2664,24 @@
         <v>652.69000000000005</v>
       </c>
       <c r="D20">
+        <v>650.79999999999995</v>
+      </c>
+      <c r="E20">
         <v>661.7</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>154</v>
       </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1.8900000000001</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>8.0000000000040927E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2114,13 +2693,24 @@
         <v>646.05999999999995</v>
       </c>
       <c r="D21">
+        <v>644.20000000000005</v>
+      </c>
+      <c r="E21">
         <v>653.20000000000005</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>630</v>
       </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1.8599999999999</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0.74000000000000909</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2132,13 +2722,24 @@
         <v>645.46</v>
       </c>
       <c r="D22">
+        <v>643.5</v>
+      </c>
+      <c r="E22">
         <v>652.9</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>630</v>
       </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1.9600000000000364</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.92999999999994998</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2150,13 +2751,24 @@
         <v>622.92999999999995</v>
       </c>
       <c r="D23">
+        <v>621.5</v>
+      </c>
+      <c r="E23">
         <v>627.4</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>614</v>
       </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>1.42999999999995</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>1.8500000000000227</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2168,13 +2780,24 @@
         <v>612.54999999999995</v>
       </c>
       <c r="D24">
+        <v>611</v>
+      </c>
+      <c r="E24">
         <v>618.4</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-5695</v>
       </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1.5499999999999545</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>2.5399999999999636</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2186,13 +2809,24 @@
         <v>594.28</v>
       </c>
       <c r="D25">
+        <v>592.6</v>
+      </c>
+      <c r="E25">
         <v>601.29999999999995</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>595</v>
       </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1.67999999999995</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>3.6699999999999591</v>
+      </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2204,10 +2838,21 @@
         <v>589.33000000000004</v>
       </c>
       <c r="D26">
+        <v>587.70000000000005</v>
+      </c>
+      <c r="E26">
         <v>590.1</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>593</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1.6299999999999955</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>3.8399999999999181</v>
       </c>
     </row>
   </sheetData>
